--- a/Fig.7.xlsx
+++ b/Fig.7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\VPP\原始数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECD050F-4EA8-4961-8A50-8B618796DBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCD6D75-1712-46E4-B5A1-57E8A0CCBD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,12 +151,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,10 +194,10 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +483,7 @@
   <dimension ref="A1:L3089"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -497,20 +503,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="7"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
@@ -539,14 +545,14 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -556,7 +562,7 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="4"/>
